--- a/deportessalud/salud.xlsx
+++ b/deportessalud/salud.xlsx
@@ -12,15 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>5,0</t>
+    <t>60,0</t>
   </si>
   <si>
-    <t>IMC: 2000,00</t>
+    <t>190,0</t>
   </si>
   <si>
-    <t>Obesidad</t>
+    <t>7,0</t>
+  </si>
+  <si>
+    <t>IMC: 16,62</t>
+  </si>
+  <si>
+    <t>Bajo peso</t>
   </si>
 </sst>
 </file>
@@ -82,11 +88,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.81640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="3.81640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.9296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="3.81640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.97265625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.4765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.7421875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="9.7421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -94,16 +100,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
